--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2549675.547143703</v>
+        <v>-2552289.825760156</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>100.760932309077</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851259</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>115.8619247783173</v>
       </c>
       <c r="T2" t="n">
-        <v>23.51700766268733</v>
+        <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
         <v>251.0186029205788</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.1561775373476</v>
       </c>
       <c r="H3" t="n">
-        <v>91.1103483761872</v>
+        <v>91.11034837618719</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674309</v>
+        <v>14.08691327674306</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869334</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.8394318079292</v>
+        <v>94.83943180792917</v>
       </c>
       <c r="S4" t="n">
         <v>192.0586035981866</v>
@@ -871,13 +871,13 @@
         <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
-        <v>7.580829376875498</v>
+        <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>206.8608374711769</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>46.97761458554236</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>105.0221052551872</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>277.7360994390921</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>162.8284616980199</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>125.9673299442106</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>37.56131489962108</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.663058745074</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,10 +1348,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>42.86209348694648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>103.2360561910026</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>171.1477359514041</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>79.75167225698489</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428129</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>113.9549918517063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703274</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>27.31547498186405</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703267</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462236</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856545</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>251.071834812888</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652626</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096042</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3946,13 +3946,13 @@
         <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096056</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1583.372028646797</v>
+        <v>1299.495097119607</v>
       </c>
       <c r="C2" t="n">
-        <v>1214.409511706386</v>
+        <v>930.5325801791951</v>
       </c>
       <c r="D2" t="n">
-        <v>856.1438130996351</v>
+        <v>930.5325801791951</v>
       </c>
       <c r="E2" t="n">
-        <v>470.3555605013908</v>
+        <v>930.5325801791951</v>
       </c>
       <c r="F2" t="n">
-        <v>59.36965571178312</v>
+        <v>828.753860675077</v>
       </c>
       <c r="G2" t="n">
-        <v>59.36965571178312</v>
+        <v>413.3855650443556</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178312</v>
+        <v>112.7721371749273</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178319</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734996</v>
+        <v>223.6389510735003</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447439</v>
+        <v>520.5745606447449</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185011</v>
+        <v>925.8512030185038</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552356</v>
+        <v>1408.468993552359</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877247</v>
+        <v>1903.50985287725</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384224</v>
+        <v>2357.627637384227</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215709</v>
+        <v>2710.705659215712</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719471</v>
+        <v>2927.679802719474</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589156</v>
+        <v>2968.482785589159</v>
       </c>
       <c r="S2" t="n">
-        <v>2968.482785589156</v>
+        <v>2851.450538338334</v>
       </c>
       <c r="T2" t="n">
-        <v>2944.728232394522</v>
+        <v>2644.177727152601</v>
       </c>
       <c r="U2" t="n">
-        <v>2691.174088030301</v>
+        <v>2390.623582788379</v>
       </c>
       <c r="V2" t="n">
-        <v>2360.111200686731</v>
+        <v>2059.560695444809</v>
       </c>
       <c r="W2" t="n">
-        <v>2360.111200686731</v>
+        <v>2059.560695444809</v>
       </c>
       <c r="X2" t="n">
-        <v>2360.111200686731</v>
+        <v>1686.094937183729</v>
       </c>
       <c r="Y2" t="n">
-        <v>1969.971868710919</v>
+        <v>1686.094937183729</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1341.528820902744</v>
+        <v>931.3103593400832</v>
       </c>
       <c r="C3" t="n">
-        <v>1167.075791621617</v>
+        <v>756.8573300589562</v>
       </c>
       <c r="D3" t="n">
-        <v>1018.141381960366</v>
+        <v>607.922920397705</v>
       </c>
       <c r="E3" t="n">
-        <v>858.90392695491</v>
+        <v>448.6854653922495</v>
       </c>
       <c r="F3" t="n">
-        <v>712.369368981795</v>
+        <v>302.1509074191345</v>
       </c>
       <c r="G3" t="n">
-        <v>575.8479775299288</v>
+        <v>165.6295159672683</v>
       </c>
       <c r="H3" t="n">
-        <v>483.8173226044872</v>
+        <v>73.59886104182668</v>
       </c>
       <c r="I3" t="n">
-        <v>469.5881172744437</v>
+        <v>59.36965571178319</v>
       </c>
       <c r="J3" t="n">
-        <v>673.4380622645604</v>
+        <v>138.3894757148952</v>
       </c>
       <c r="K3" t="n">
-        <v>886.6503454665553</v>
+        <v>556.0569723455417</v>
       </c>
       <c r="L3" t="n">
-        <v>1219.663113416798</v>
+        <v>889.0697402957842</v>
       </c>
       <c r="M3" t="n">
-        <v>1707.255263031127</v>
+        <v>1297.036801468465</v>
       </c>
       <c r="N3" t="n">
-        <v>2140.428643284919</v>
+        <v>1730.210181722257</v>
       </c>
       <c r="O3" t="n">
-        <v>2514.477863729448</v>
+        <v>2104.259402166787</v>
       </c>
       <c r="P3" t="n">
-        <v>2795.352273654694</v>
+        <v>2385.133812092034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2933.190181986761</v>
+        <v>2522.971720424101</v>
       </c>
       <c r="R3" t="n">
-        <v>2968.482785589156</v>
+        <v>2558.264324026496</v>
       </c>
       <c r="S3" t="n">
-        <v>2836.104707899342</v>
+        <v>2425.886246336681</v>
       </c>
       <c r="T3" t="n">
-        <v>2642.823682619122</v>
+        <v>2232.605221056462</v>
       </c>
       <c r="U3" t="n">
-        <v>2414.745421853243</v>
+        <v>2004.526960290582</v>
       </c>
       <c r="V3" t="n">
-        <v>2179.5933136215</v>
+        <v>1769.374852058839</v>
       </c>
       <c r="W3" t="n">
-        <v>1925.355956893299</v>
+        <v>1515.137495330638</v>
       </c>
       <c r="X3" t="n">
-        <v>1717.504456687766</v>
+        <v>1307.285995125105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1509.744157922812</v>
+        <v>1099.525696360151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2267.047289603976</v>
+        <v>526.335571634419</v>
       </c>
       <c r="C4" t="n">
-        <v>2098.111106676069</v>
+        <v>357.3993887065121</v>
       </c>
       <c r="D4" t="n">
-        <v>1947.994467263733</v>
+        <v>207.2827492941763</v>
       </c>
       <c r="E4" t="n">
-        <v>1800.08137368134</v>
+        <v>59.36965571178319</v>
       </c>
       <c r="F4" t="n">
-        <v>1653.19142618343</v>
+        <v>59.36965571178319</v>
       </c>
       <c r="G4" t="n">
-        <v>1485.355883462586</v>
+        <v>59.36965571178319</v>
       </c>
       <c r="H4" t="n">
-        <v>1337.958818848986</v>
+        <v>59.36965571178319</v>
       </c>
       <c r="I4" t="n">
-        <v>1236.642307448043</v>
+        <v>59.36965571178319</v>
       </c>
       <c r="J4" t="n">
-        <v>1272.56932712572</v>
+        <v>95.29667538945995</v>
       </c>
       <c r="K4" t="n">
-        <v>1461.445293514081</v>
+        <v>284.172641777821</v>
       </c>
       <c r="L4" t="n">
-        <v>1758.667937374887</v>
+        <v>581.3952856386279</v>
       </c>
       <c r="M4" t="n">
-        <v>2082.436664730855</v>
+        <v>905.1640129945959</v>
       </c>
       <c r="N4" t="n">
-        <v>2403.941511830839</v>
+        <v>1226.66886009458</v>
       </c>
       <c r="O4" t="n">
-        <v>2684.886979680604</v>
+        <v>1507.614327944345</v>
       </c>
       <c r="P4" t="n">
-        <v>2901.76368002654</v>
+        <v>1724.491028290281</v>
       </c>
       <c r="Q4" t="n">
-        <v>2968.482785589156</v>
+        <v>1791.210133852897</v>
       </c>
       <c r="R4" t="n">
-        <v>2872.685379722561</v>
+        <v>1695.412727986302</v>
       </c>
       <c r="S4" t="n">
-        <v>2678.686790229443</v>
+        <v>1501.414138493184</v>
       </c>
       <c r="T4" t="n">
-        <v>2456.353157845201</v>
+        <v>1279.080506108942</v>
       </c>
       <c r="U4" t="n">
-        <v>2448.695754434216</v>
+        <v>989.9704007202824</v>
       </c>
       <c r="V4" t="n">
-        <v>2448.695754434216</v>
+        <v>735.2859125143956</v>
       </c>
       <c r="W4" t="n">
-        <v>2448.695754434216</v>
+        <v>526.335571634419</v>
       </c>
       <c r="X4" t="n">
-        <v>2448.695754434216</v>
+        <v>526.335571634419</v>
       </c>
       <c r="Y4" t="n">
-        <v>2448.695754434216</v>
+        <v>526.335571634419</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>921.770455879627</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3109.232218535064</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2778.169331191494</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2425.400675921379</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.9349176603</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.795585684488</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1143.470076657431</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1143.470076657431</v>
+        <v>1259.53839760801</v>
       </c>
       <c r="W7" t="n">
-        <v>1143.470076657431</v>
+        <v>1259.53839760801</v>
       </c>
       <c r="X7" t="n">
-        <v>1143.470076657431</v>
+        <v>1031.548846709993</v>
       </c>
       <c r="Y7" t="n">
-        <v>922.6774975139006</v>
+        <v>810.7562675664626</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866151</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.407165890339</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>440.6904267128333</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,10 +4981,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
@@ -4996,16 +4996,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1091.613680441807</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.613680441807</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1091.613680441807</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,16 +5051,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2342.684238942884</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>971.4076946508441</v>
+        <v>1350.991564824961</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5291,13 +5291,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188007</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189237</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925705</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490404</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356192</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232834</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038343</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5841,10 +5841,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400719</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>344.917417812165</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>344.917417812165</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>344.917417812165</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>344.917417812165</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2419.37169470969</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2199.770229732631</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1910.695003076829</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138418</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703116</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5987,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6075,13 +6075,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121641</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121641</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121641</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121641</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057735</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6315,7 +6315,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,7 +6406,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547835</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7315,25 +7315,25 @@
         <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7497,16 +7497,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>206.5204176046983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80.42938226429112</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>306.1151134326344</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851265</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783174</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>181.6830754111882</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>278.6381749578982</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>79.66216086541408</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>77.79022981064195</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>54.56191943763307</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194236</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>206.7713260796061</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>111.7546635373309</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194171</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.7108110197806</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>35.11263957635617</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1403306.875835482</v>
+        <v>1403306.875835483</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1403306.875835483</v>
+        <v>1403306.875835482</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1403306.875835482</v>
+        <v>1403306.875835483</v>
       </c>
     </row>
     <row r="10">
@@ -26317,40 +26317,40 @@
         <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225014</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="J2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660709</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1228620.061871473</v>
+        <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973037</v>
+        <v>95186.49343973069</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818041</v>
+        <v>213599.1454818043</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359964</v>
+        <v>22978.01038359958</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16555.52139697205</v>
+        <v>16555.52139697201</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815721</v>
+        <v>90964.01098815705</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
@@ -26433,31 +26433,31 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="K4" t="n">
+        <v>19767.83547989935</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="M4" t="n">
         <v>19767.83547989928</v>
       </c>
-      <c r="L4" t="n">
-        <v>19767.83547989929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19767.83547989931</v>
-      </c>
       <c r="N4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="O4" t="n">
         <v>19767.83547989929</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.8354798993</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209745</v>
+        <v>100917.4173209746</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1329862.545008702</v>
+        <v>-1330292.103875291</v>
       </c>
       <c r="C6" t="n">
-        <v>-273558.4007426738</v>
+        <v>-273558.400742674</v>
       </c>
       <c r="D6" t="n">
-        <v>-178371.9073029435</v>
+        <v>-178371.9073029433</v>
       </c>
       <c r="E6" t="n">
-        <v>-418133.3028558181</v>
+        <v>-418168.0407812537</v>
       </c>
       <c r="F6" t="n">
-        <v>-92720.8410484628</v>
+        <v>-92755.57897389847</v>
       </c>
       <c r="G6" t="n">
-        <v>-92720.84104846278</v>
+        <v>-92755.57897389847</v>
       </c>
       <c r="H6" t="n">
-        <v>-92720.84104846278</v>
+        <v>-92755.5789738985</v>
       </c>
       <c r="I6" t="n">
-        <v>-92720.84104846278</v>
+        <v>-92755.57897389847</v>
       </c>
       <c r="J6" t="n">
-        <v>-316005.0525690117</v>
+        <v>-316005.0525690119</v>
       </c>
       <c r="K6" t="n">
         <v>-125383.9174708072</v>
       </c>
       <c r="L6" t="n">
-        <v>-102405.9070872077</v>
+        <v>-102405.9070872076</v>
       </c>
       <c r="M6" t="n">
-        <v>-187460.9350227195</v>
+        <v>-187460.9350227194</v>
       </c>
       <c r="N6" t="n">
         <v>-102405.9070872076</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.1206963972899</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396926</v>
+        <v>72.85564646396961</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.1206963972899</v>
       </c>
       <c r="C4" t="n">
         <v>89.28075900500312</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.1206963972899</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500312</v>
+        <v>89.28075900500289</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.1206963972899</v>
       </c>
       <c r="K4" t="n">
         <v>89.28075900500312</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>318.2952771854652</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>145.9730667037148</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>8.475738766520806</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>89.30918162580815</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>256.7665117192699</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>290.1909435705138</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>17.77090390149513</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>209.2755498368815</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720916</v>
+        <v>4.088124840720917</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503309</v>
+        <v>41.8675085250331</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001372</v>
+        <v>346.9744857001373</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078536</v>
+        <v>520.0248102078538</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020665</v>
+        <v>645.1367608020666</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382371</v>
+        <v>717.8389509382373</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419354</v>
+        <v>729.4543356419357</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570167</v>
+        <v>688.8030442570169</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517191</v>
+        <v>587.8774622517193</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934011</v>
+        <v>441.4714913934013</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259355</v>
+        <v>256.8006720259356</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792797</v>
+        <v>93.158144807928</v>
       </c>
       <c r="T2" t="n">
         <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576732</v>
+        <v>0.3270499872576733</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863084</v>
+        <v>2.187339625863085</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030926</v>
+        <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467199</v>
+        <v>75.30971957467202</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698101</v>
+        <v>206.6556266698102</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026368</v>
+        <v>353.2073816026369</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629474</v>
+        <v>474.9309130629475</v>
       </c>
       <c r="M3" t="n">
-        <v>554.221974500484</v>
+        <v>554.2219745004842</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265571</v>
+        <v>568.8905810265574</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429593</v>
+        <v>520.4237398429594</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913463</v>
+        <v>417.6859325913465</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224527</v>
+        <v>279.2119845224528</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005168</v>
+        <v>135.8069287005169</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092174</v>
+        <v>40.62887419092175</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404271</v>
+        <v>8.816513667404273</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541503</v>
+        <v>0.1439039227541504</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,28 +31197,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.833792064823379</v>
+        <v>1.83379206482338</v>
       </c>
       <c r="H4" t="n">
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032492</v>
+        <v>55.14712864032493</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585707</v>
+        <v>213.0532962585708</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283777</v>
+        <v>272.6348675283778</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795411</v>
+        <v>287.4552415795412</v>
       </c>
       <c r="N4" t="n">
-        <v>280.620198428836</v>
+        <v>280.6201984288361</v>
       </c>
       <c r="O4" t="n">
         <v>259.1981729443083</v>
@@ -31227,16 +31227,16 @@
         <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735286</v>
+        <v>153.5550791735287</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924028</v>
+        <v>82.45395956924031</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878561</v>
+        <v>31.95799443878562</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881709</v>
+        <v>7.835293367881712</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,10 +33035,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,10 +33272,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,10 +33509,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O33" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>426.9501404413636</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734509</v>
+        <v>165.928581173451</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628731</v>
+        <v>299.9349591628732</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320793</v>
+        <v>409.3703458320794</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109644</v>
+        <v>487.4927177109646</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453444</v>
+        <v>500.0412720453448</v>
       </c>
       <c r="O2" t="n">
-        <v>458.70483283533</v>
+        <v>458.7048328353302</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964495</v>
+        <v>356.6444664964498</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189516</v>
+        <v>219.1658015189518</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180333</v>
+        <v>41.21513421180344</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>205.9090353435522</v>
+        <v>79.81800000314348</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282778</v>
+        <v>421.8863602329762</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830732</v>
+        <v>336.3765332830733</v>
       </c>
       <c r="M3" t="n">
-        <v>492.5173228427568</v>
+        <v>412.0879405784659</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432239</v>
+        <v>437.5488689432241</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985149</v>
+        <v>377.827495398515</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770161</v>
+        <v>283.7115251770163</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364312</v>
+        <v>139.2302104364313</v>
       </c>
       <c r="R3" t="n">
-        <v>35.64909454787367</v>
+        <v>35.64909454787373</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634012</v>
+        <v>36.28991886634017</v>
       </c>
       <c r="K4" t="n">
-        <v>190.7838044326879</v>
+        <v>190.783804432688</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886939</v>
+        <v>300.224892788694</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413817</v>
+        <v>327.0391185413818</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080646</v>
+        <v>324.7523708080647</v>
       </c>
       <c r="O4" t="n">
         <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868046</v>
+        <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183423</v>
+        <v>67.39303592183428</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>197.8432633066783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36683,10 +36683,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,10 +36920,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,10 +37157,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O33" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>295.6084283580303</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
